--- a/ProjectPlan.xlsx
+++ b/ProjectPlan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cendy\Desktop\Berkeley\w241\finalproject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cendy\Desktop\Berkeley\w241\w241_finalproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -880,12 +880,12 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" style="2" customWidth="1"/>
     <col min="3" max="18" width="6.44140625" customWidth="1"/>
   </cols>
@@ -1101,7 +1101,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="13"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="20"/>
@@ -1115,8 +1115,8 @@
       <c r="C15" s="12"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -1130,7 +1130,7 @@
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="14"/>
+      <c r="G16" s="11"/>
       <c r="H16" s="14"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
